--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132880.6649337839</v>
+        <v>132895.7850399426</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5413711.842050619</v>
+        <v>5440875.209663301</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22726010.95505212</v>
+        <v>22718022.18796547</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4040144.374457322</v>
+        <v>4041925.059601265</v>
       </c>
     </row>
     <row r="11">
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11458,19 +11460,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -25877,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,16 +25958,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,19 +26037,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,22 +26064,22 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>349399.0679772008</v>
+        <v>352482.6385015642</v>
       </c>
     </row>
   </sheetData>
@@ -26326,7 +26328,7 @@
         <v>59129.07304229552</v>
       </c>
       <c r="G2" t="n">
-        <v>59129.07304229552</v>
+        <v>59129.07304229551</v>
       </c>
       <c r="H2" t="n">
         <v>59129.07304229552</v>
@@ -26353,7 +26355,7 @@
         <v>59129.07304229552</v>
       </c>
       <c r="P2" t="n">
-        <v>59129.07304229551</v>
+        <v>60007.83742182716</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>15317.15519514249</v>
       </c>
     </row>
     <row r="4">
@@ -26457,7 +26459,7 @@
         <v>32252.22165943392</v>
       </c>
       <c r="P4" t="n">
-        <v>32252.22165943392</v>
+        <v>30622.41960267296</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>501.6917425720072</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6750.748617138393</v>
+        <v>-6750.748617138401</v>
       </c>
       <c r="C6" t="n">
         <v>-6750.748617138393</v>
@@ -26534,10 +26536,10 @@
         <v>26876.85138286161</v>
       </c>
       <c r="G6" t="n">
+        <v>26876.85138286159</v>
+      </c>
+      <c r="H6" t="n">
         <v>26876.85138286161</v>
-      </c>
-      <c r="H6" t="n">
-        <v>26876.8513828616</v>
       </c>
       <c r="I6" t="n">
         <v>26876.85138286161</v>
@@ -26546,22 +26548,22 @@
         <v>26876.85138286161</v>
       </c>
       <c r="K6" t="n">
-        <v>26876.85138286161</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="L6" t="n">
         <v>26876.8513828616</v>
       </c>
       <c r="M6" t="n">
+        <v>26876.8513828616</v>
+      </c>
+      <c r="N6" t="n">
         <v>26876.85138286161</v>
       </c>
-      <c r="N6" t="n">
-        <v>26876.8513828616</v>
-      </c>
       <c r="O6" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="P6" t="n">
-        <v>26876.85138286159</v>
+        <v>13566.57088143971</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132895.7850399426</v>
+        <v>6119.71106451889</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5440875.209663301</v>
+        <v>5413711.842050619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22718022.18796547</v>
+        <v>22726010.95505212</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4041925.059601265</v>
+        <v>4040144.374457322</v>
       </c>
     </row>
     <row r="11">
@@ -11299,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>208.3214547517356</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>221.1666787354324</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>214.1012135983212</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>212.9051825663978</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>214.5102874732696</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>217.9290633046618</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>127.8064787429921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>129.5917403577182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>118.4674613291454</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>130.8188201934042</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>124.5219861368073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11460,19 +11460,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>128.7148261097669</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M46" t="n">
-        <v>132.4205420186164</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N46" t="n">
-        <v>121.3349826493852</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O46" t="n">
-        <v>132.590766746692</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -25879,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>206.909162189371</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>4.097100052852174</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>144.0576027644702</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,16 +25958,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>97.08446202703757</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26037,19 +26037,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>90.42516245839145</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26064,22 +26064,22 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>352482.6385015642</v>
+        <v>349399.0679772008</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59129.07304229552</v>
+        <v>59129.07304229553</v>
       </c>
       <c r="C2" t="n">
-        <v>59129.07304229552</v>
+        <v>59129.07304229551</v>
       </c>
       <c r="D2" t="n">
         <v>59129.07304229552</v>
@@ -26328,7 +26328,7 @@
         <v>59129.07304229552</v>
       </c>
       <c r="G2" t="n">
-        <v>59129.07304229551</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="H2" t="n">
         <v>59129.07304229552</v>
@@ -26337,7 +26337,7 @@
         <v>59129.07304229552</v>
       </c>
       <c r="J2" t="n">
-        <v>59129.07304229552</v>
+        <v>59129.07304229551</v>
       </c>
       <c r="K2" t="n">
         <v>59129.07304229552</v>
@@ -26355,7 +26355,7 @@
         <v>59129.07304229552</v>
       </c>
       <c r="P2" t="n">
-        <v>60007.83742182716</v>
+        <v>59129.07304229552</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>15317.15519514249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26459,7 +26459,7 @@
         <v>32252.22165943392</v>
       </c>
       <c r="P4" t="n">
-        <v>30622.41960267296</v>
+        <v>32252.22165943392</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>501.6917425720072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6750.748617138401</v>
+        <v>-21901.42258717315</v>
       </c>
       <c r="C6" t="n">
-        <v>-6750.748617138393</v>
+        <v>-21901.42258717317</v>
       </c>
       <c r="D6" t="n">
-        <v>-6750.748617138393</v>
+        <v>-21901.42258717317</v>
       </c>
       <c r="E6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="F6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282683</v>
       </c>
       <c r="G6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282683</v>
       </c>
       <c r="H6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282683</v>
       </c>
       <c r="I6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="J6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282683</v>
       </c>
       <c r="K6" t="n">
-        <v>26876.8513828616</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="L6" t="n">
-        <v>26876.8513828616</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="M6" t="n">
-        <v>26876.8513828616</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="N6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282683</v>
       </c>
       <c r="O6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="P6" t="n">
-        <v>13566.57088143971</v>
+        <v>11726.17741282684</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0925161113036756</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9474806248887678</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>7.852189301760343</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>11.76839629324493</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>5.811515176679517</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2.10821088633251</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04950048351498081</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>4.676710155246498</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>9.452421277522959</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>6.350561815847948</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.1773162272588685</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6119.71106451889</v>
+        <v>120204.5695468574</v>
       </c>
     </row>
     <row r="7">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59129.07304229553</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="C2" t="n">
         <v>59129.07304229551</v>
@@ -26328,7 +26328,7 @@
         <v>59129.07304229552</v>
       </c>
       <c r="G2" t="n">
-        <v>59129.07304229552</v>
+        <v>59129.07304229553</v>
       </c>
       <c r="H2" t="n">
         <v>59129.07304229552</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21901.42258717315</v>
+        <v>-8265.816014141878</v>
       </c>
       <c r="C6" t="n">
-        <v>-21901.42258717317</v>
+        <v>-8265.816014141885</v>
       </c>
       <c r="D6" t="n">
-        <v>-21901.42258717317</v>
+        <v>-8265.81601414187</v>
       </c>
       <c r="E6" t="n">
-        <v>11726.17741282684</v>
+        <v>25361.78398585813</v>
       </c>
       <c r="F6" t="n">
-        <v>11726.17741282683</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="G6" t="n">
-        <v>11726.17741282683</v>
+        <v>25361.78398585814</v>
       </c>
       <c r="H6" t="n">
-        <v>11726.17741282683</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="I6" t="n">
-        <v>11726.17741282684</v>
+        <v>25361.78398585813</v>
       </c>
       <c r="J6" t="n">
-        <v>11726.17741282683</v>
+        <v>25361.78398585811</v>
       </c>
       <c r="K6" t="n">
-        <v>11726.17741282684</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="L6" t="n">
-        <v>11726.17741282684</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="M6" t="n">
-        <v>11726.17741282684</v>
+        <v>25361.78398585813</v>
       </c>
       <c r="N6" t="n">
-        <v>11726.17741282683</v>
+        <v>25361.78398585813</v>
       </c>
       <c r="O6" t="n">
-        <v>11726.17741282684</v>
+        <v>25361.78398585813</v>
       </c>
       <c r="P6" t="n">
-        <v>11726.17741282684</v>
+        <v>25361.78398585813</v>
       </c>
     </row>
   </sheetData>
